--- a/Employee_Reports35/Crisfo Lo Nibal Q0489.xlsx
+++ b/Employee_Reports35/Crisfo Lo Nibal Q0489.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1503,11 +1503,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1601,11 +1601,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1650,11 +1650,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1699,11 +1699,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1748,11 +1748,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1797,11 +1797,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1846,11 +1846,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1895,11 +1895,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1944,11 +1944,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1993,11 +1993,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2042,11 +2042,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2091,11 +2091,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2140,11 +2140,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2189,11 +2189,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2209,36 +2209,183 @@
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
+          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
+        </is>
+      </c>
+      <c r="C37" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-009</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="inlineStr">
+        <is>
+          <t>30-Jul-2025</t>
+        </is>
+      </c>
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>30-Jul-2026</t>
+        </is>
+      </c>
+      <c r="H37" s="3" t="n">
+        <v>268</v>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-011</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="inlineStr">
+        <is>
+          <t>18-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>18-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>287</v>
+      </c>
+      <c r="I38" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J38" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K38" s="3" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E39" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="inlineStr">
+        <is>
+          <t>19-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>19-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H39" s="3" t="n">
+        <v>288</v>
+      </c>
+      <c r="I39" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J39" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K39" s="3" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C37" s="3" t="inlineStr"/>
-      <c r="D37" s="3" t="inlineStr"/>
-      <c r="E37" s="3" t="inlineStr"/>
-      <c r="F37" s="3" t="inlineStr">
+      <c r="C40" s="3" t="inlineStr"/>
+      <c r="D40" s="3" t="inlineStr"/>
+      <c r="E40" s="3" t="inlineStr"/>
+      <c r="F40" s="3" t="inlineStr">
         <is>
           <t>12-Oct-2025</t>
         </is>
       </c>
-      <c r="G37" s="3" t="inlineStr">
+      <c r="G40" s="3" t="inlineStr">
         <is>
           <t>12-Oct-2027</t>
         </is>
       </c>
-      <c r="H37" s="3" t="n">
-        <v>708</v>
-      </c>
-      <c r="I37" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J37" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K37" s="3" t="inlineStr"/>
+      <c r="H40" s="3" t="n">
+        <v>707</v>
+      </c>
+      <c r="I40" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J40" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K40" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Crisfo Lo Nibal Q0489.xlsx
+++ b/Employee_Reports35/Crisfo Lo Nibal Q0489.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1503,11 +1503,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1552,11 +1552,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1601,11 +1601,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1650,11 +1650,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1699,11 +1699,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1748,11 +1748,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1797,11 +1797,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1846,11 +1846,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1895,11 +1895,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1944,11 +1944,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1993,11 +1993,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2042,11 +2042,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2091,11 +2091,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2140,11 +2140,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2189,11 +2189,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2238,11 +2238,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
@@ -2287,11 +2287,11 @@
         </is>
       </c>
       <c r="H38" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I38" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J38" s="3" t="inlineStr">
@@ -2336,11 +2336,11 @@
         </is>
       </c>
       <c r="H39" s="3" t="n">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I39" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J39" s="3" t="inlineStr">
@@ -2373,11 +2373,11 @@
         </is>
       </c>
       <c r="H40" s="3" t="n">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I40" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J40" s="3" t="inlineStr">
